--- a/03_plots_and_tables/AGP_control_long_table.xlsx
+++ b/03_plots_and_tables/AGP_control_long_table.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.934421633477803e-187</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.934421633477804e-185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.398479928431638e-30</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.664977698257375e-29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4.851275593146682e-13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.865875228133339e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.605497794567363e-10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.437307126812144e-09</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>1e-05</v>
+        <v>7.495555582615773e-06</v>
       </c>
       <c r="E6">
-        <v>2e-05</v>
+        <v>1.3150097513361e-05</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.00045</v>
+        <v>0.0004513886219967887</v>
       </c>
       <c r="E7">
-        <v>0.00066</v>
+        <v>0.0006638067970541011</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.20806</v>
+        <v>0.2080641727918373</v>
       </c>
       <c r="E8">
-        <v>0.22615</v>
+        <v>0.2261567095563449</v>
       </c>
     </row>
     <row r="9">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.4135</v>
+        <v>0.4135023426013169</v>
       </c>
       <c r="E9">
-        <v>0.43526</v>
+        <v>0.4352656237908599</v>
       </c>
     </row>
     <row r="10">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.52903</v>
+        <v>0.5290340029453185</v>
       </c>
       <c r="E10">
-        <v>0.54539</v>
+        <v>0.5453958793250706</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.77432</v>
+        <v>0.7743176834418383</v>
       </c>
       <c r="E11">
-        <v>0.77432</v>
+        <v>0.7743176834418383</v>
       </c>
     </row>
   </sheetData>
